--- a/data/trans_camb/IMC_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Estudios-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/IMC_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>8.100655436436899</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.296952315219564</v>
+        <v>3.296952315219559</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.944487358743377</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.185748692405051</v>
+        <v>2.272252946071412</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.834873941050971</v>
+        <v>1.295840290716718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.056353627147379</v>
+        <v>2.445639672742014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.80582783727309</v>
+        <v>5.32641381802017</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.799928254629402</v>
+        <v>4.229715067493734</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2464383774689086</v>
+        <v>0.1801994899456583</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.22991999199355</v>
+        <v>5.171996751229557</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.942700367337163</v>
+        <v>3.677095804019618</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.107130926911662</v>
+        <v>2.078259283088436</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.642221190935361</v>
+        <v>9.792581061915854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.869416261106181</v>
+        <v>9.120335149713346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.58872116697076</v>
+        <v>11.29525445301786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.85165861834124</v>
+        <v>12.66706952356395</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.32897568247066</v>
+        <v>12.05389635132011</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.675617947537911</v>
+        <v>7.201102771965771</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.41268615720286</v>
+        <v>10.37989298397014</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.698094352305283</v>
+        <v>9.652744502130654</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.461414178545072</v>
+        <v>7.292046646089187</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.3186638459064399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1296956169512286</v>
+        <v>0.1296956169512284</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3539640246087381</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1072247902691248</v>
+        <v>0.1274125677459417</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03463680524303367</v>
+        <v>0.06159046661373472</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.09582059212535429</v>
+        <v>0.1240237293334423</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2162267988228885</v>
+        <v>0.191330720888265</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1416723664748578</v>
+        <v>0.1544345786884325</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.009177007395108849</v>
+        <v>0.006958266271767496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.218277718290759</v>
+        <v>0.2163077091286226</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1679567683806335</v>
+        <v>0.1536948428395685</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.0883786945504532</v>
+        <v>0.08992991842938357</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5738283730007254</v>
+        <v>0.5883775477455596</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5213418231656025</v>
+        <v>0.5466982530113653</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6090647200582132</v>
+        <v>0.656847877335751</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5440716852411481</v>
+        <v>0.5384543318568092</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5196152446733214</v>
+        <v>0.51037086318298</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2800632046005949</v>
+        <v>0.3093523180099167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4890592357332415</v>
+        <v>0.4807544343407135</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4530155417765444</v>
+        <v>0.4493273025446288</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3512870888259303</v>
+        <v>0.3398861223923678</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>6.986199075887398</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.18522991173553</v>
+        <v>7.185229911735533</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.401515004246495</v>
@@ -869,7 +869,7 @@
         <v>5.560465496451954</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.418280980374573</v>
+        <v>6.418280980374578</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.527315781226286</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.643535308920351</v>
+        <v>2.42710003728413</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.08251069269644</v>
+        <v>4.926116644424094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.028672537146035</v>
+        <v>5.067189323959155</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.196453287792126</v>
+        <v>4.058158319991695</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.494168104647828</v>
+        <v>3.459596723873192</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.387318039859458</v>
+        <v>4.500759336351128</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.859566749189922</v>
+        <v>3.995346287777729</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.768491666291413</v>
+        <v>4.727614799839695</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.346858162076605</v>
+        <v>5.34330430183907</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.94190558731753</v>
+        <v>6.852569707014259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.227131246817915</v>
+        <v>9.142852119099311</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.439092358394188</v>
+        <v>9.493644303804261</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.60929722542739</v>
+        <v>8.793844712453373</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.750812235378015</v>
+        <v>7.755424499042444</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.170640587818326</v>
+        <v>8.440006808641504</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.123637150573492</v>
+        <v>7.112465450595572</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.937408871047855</v>
+        <v>7.818052084925406</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.257589152281678</v>
+        <v>8.283742520570694</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.7567791067094233</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7783390961292277</v>
+        <v>0.778339096129228</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.7267685436048024</v>
@@ -974,7 +974,7 @@
         <v>0.6312835958269875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7286719967787202</v>
+        <v>0.7286719967787209</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6123137291603723</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2644043090733332</v>
+        <v>0.2365622976028814</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4911218637034885</v>
+        <v>0.4768639373594219</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4899184885115155</v>
+        <v>0.4882956299419003</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4112148916745914</v>
+        <v>0.4090145402435331</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3449895009231885</v>
+        <v>0.3424280281619105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4397102224925952</v>
+        <v>0.4451966068293502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3989153850588278</v>
+        <v>0.4043879771448149</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4903652961687712</v>
+        <v>0.4936244546399796</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5352276727601797</v>
+        <v>0.5367777245123924</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8362599144571137</v>
+        <v>0.825284183504693</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.124148475146065</v>
+        <v>1.134209983029248</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.149206416775562</v>
+        <v>1.159597418306694</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.081116928556251</v>
+        <v>1.143693599216931</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.006486603590214</v>
+        <v>0.9947592422383166</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.068410368205351</v>
+        <v>1.108549322486423</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8575769167359371</v>
+        <v>0.8435038873461619</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9601640251258572</v>
+        <v>0.944654086767341</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.002418101343547</v>
+        <v>0.9991646728653829</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.169961013345242</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.32310132829793</v>
+        <v>3.323101328297927</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.5579311209086647</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.665170886661638</v>
+        <v>-2.779429526195617</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.450070202943968</v>
+        <v>-1.767713748973208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1434799376047527</v>
+        <v>-0.1998066014390968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.973278587400789</v>
+        <v>-4.120451788856169</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.7370699237813149</v>
+        <v>-0.6403859773305984</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6599761465295811</v>
+        <v>0.8796782504152119</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.402676576719927</v>
+        <v>-2.278314043910725</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2266655767548439</v>
+        <v>-0.1681597161548441</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.134099342061973</v>
+        <v>1.014164571565125</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.797196288599761</v>
+        <v>5.716402907145021</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.99222956899423</v>
+        <v>6.25100642634246</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.281787328511351</v>
+        <v>7.189156710272296</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.879339756064374</v>
+        <v>2.612845854020057</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.457059593300124</v>
+        <v>6.349890901879691</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.930942146892631</v>
+        <v>7.275111723396961</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.140642648714564</v>
+        <v>3.214007430496419</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.095500289610324</v>
+        <v>5.008419268886242</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.043079617305851</v>
+        <v>5.858887381132051</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2330376718808444</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3568763642333155</v>
+        <v>0.3568763642333152</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.08271467112609752</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2418356644152022</v>
+        <v>-0.2493788777290848</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1369286710063692</v>
+        <v>-0.158262330585015</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02813444992385189</v>
+        <v>-0.02438998455357879</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4641405162447773</v>
+        <v>-0.4699134988365216</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1039055003163959</v>
+        <v>-0.09391471353607907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06259505138144442</v>
+        <v>0.08310904923576162</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.258682655788892</v>
+        <v>-0.2464809195287345</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.03034378618841864</v>
+        <v>-0.02308948926289918</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1083588563482248</v>
+        <v>0.1055376699221352</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8111305408775169</v>
+        <v>0.7445902092541</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8288736057865517</v>
+        <v>0.8318255714563665</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9558281459813157</v>
+        <v>0.9579994720663577</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6262603208560791</v>
+        <v>0.5292425187773545</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.28438246048099</v>
+        <v>1.259104485538441</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.38569818960232</v>
+        <v>1.423573165288383</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4541906954605722</v>
+        <v>0.5046963452971057</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7517009004563976</v>
+        <v>0.7264358242628614</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8638461319423872</v>
+        <v>0.8678829397871202</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.867647460453963</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.814985675326193</v>
+        <v>4.814985675326191</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.14447434053936</v>
@@ -1306,7 +1306,7 @@
         <v>4.311803234919825</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.50638793827214</v>
+        <v>3.506387938272143</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.594872981004602</v>
+        <v>2.454251631578427</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.173339873224809</v>
+        <v>3.115980670514853</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.045052109605255</v>
+        <v>3.210941899692623</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.144776154186565</v>
+        <v>4.237643630325009</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.672320476846405</v>
+        <v>2.045255536883868</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5916424929548925</v>
+        <v>0.62156104597762</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.016599604835845</v>
+        <v>4.001314241264396</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.906522813406402</v>
+        <v>3.019958784761865</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.318638755597806</v>
+        <v>2.283579006655476</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.176026640545927</v>
+        <v>5.928355912240839</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.581582554681338</v>
+        <v>6.650488258208568</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.442849456695175</v>
+        <v>6.715849644411348</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.928597905590378</v>
+        <v>8.124817076097896</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.628404939126905</v>
+        <v>5.701948306918484</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.783814083180723</v>
+        <v>3.756177434906804</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.52409531684114</v>
+        <v>6.56883354197888</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.495471424354665</v>
+        <v>5.586507086279683</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.715574864404783</v>
+        <v>4.805210776704499</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3993161690259613</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3949960734434172</v>
+        <v>0.394996073443417</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4118029921362907</v>
@@ -1411,7 +1411,7 @@
         <v>0.3176542165620789</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2583185857077428</v>
+        <v>0.258318585707743</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2019018093310574</v>
+        <v>0.1888766927198124</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.240758068183355</v>
+        <v>0.2455983942353097</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2333514616130311</v>
+        <v>0.247096363055448</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2600407958471342</v>
+        <v>0.2654958268312073</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1022630203958687</v>
+        <v>0.1324653871319817</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03817329690829842</v>
+        <v>0.03803595950353834</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2817955895599922</v>
+        <v>0.2834734561860753</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2015573879909189</v>
+        <v>0.2146388476238991</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.164588219038017</v>
+        <v>0.1615101038580889</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5581000123409064</v>
+        <v>0.5178536687022467</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5751788657923493</v>
+        <v>0.5866257791550865</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.558703164998497</v>
+        <v>0.5858178204713995</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5587618012832775</v>
+        <v>0.5780763221689957</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3948290355253452</v>
+        <v>0.4058914977833301</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2725350395034528</v>
+        <v>0.2681597023976375</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5078692022009698</v>
+        <v>0.5050461293112503</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4202610947052365</v>
+        <v>0.4284060452474807</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3663197610873078</v>
+        <v>0.3705253711022947</v>
       </c>
     </row>
     <row r="28">
